--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.022321.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.022321.xlsx_with_dialog_acts.xlsx
@@ -875,12 +875,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -955,12 +955,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1035,12 +1035,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1435,12 +1435,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2235,12 +2235,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2315,12 +2315,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2715,12 +2715,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2755,12 +2755,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2875,12 +2875,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3355,12 +3355,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3995,12 +3995,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4395,12 +4395,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4475,12 +4475,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4675,12 +4675,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4955,12 +4955,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5035,12 +5035,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5435,12 +5435,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5515,12 +5515,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5635,12 +5635,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5755,12 +5755,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6195,12 +6195,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6355,12 +6355,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6995,12 +6995,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7035,12 +7035,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7359,12 +7359,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7519,12 +7519,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7559,12 +7559,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8367,12 +8367,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8727,12 +8727,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8927,12 +8927,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9847,12 +9847,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10279,12 +10279,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11077,12 +11077,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11115,12 +11115,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11461,12 +11461,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11537,12 +11537,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11729,12 +11729,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11961,12 +11961,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12873,12 +12873,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13367,12 +13367,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13405,12 +13405,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13599,12 +13599,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13713,12 +13713,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14397,12 +14397,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
